--- a/biology/Botanique/Roem/Roem..xlsx
+++ b/biology/Botanique/Roem/Roem..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Jakob Römer ou Joanne Jacobo Roemer est un  naturaliste suisse, né en 1763 et mort en 1819.
 Il dirige le jardin botanique de Zurich. Avec Paul Usteri (1768-1831), il fait paraître le Magazin für die Botanik (de 1787 à 1790), Usteri continuera, seul, par les Annalen der Botanik (de 1791 à 1800). Römer fait paraître également Genera insectorum Linnaei et Fabricii iconibus illustrata a Joanne Jacobo Roemer en 1789. Il participe à la rédaction de la seizième édition de Systema Vegetabilium.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Magazin für die Botanik vols. 1-4; 1787-1791. Fortsgesetzt als Neues Magazin für die Botanik
 Genera insectorum Linnaei et Fabricii iconibus illustrata. Vitoduri Helvetorum (Winterthur), apud Henric. Steiner, 1789
